--- a/DocumentosNB07/Dataset_final.xlsx
+++ b/DocumentosNB07/Dataset_final.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\APEREZN2023\01-Formacion\02SegundoTrimestre2023\MachineLearning - 2472365 - ADSO\05-MaterialEducativo\CienciaDatosSENA\DocumentosNB07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{325E63F4-CD71-4C0D-A604-9A2AE88153C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3692397C-1113-418C-B471-18EB7BEAD2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset_final" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset_final!$A$1:$O$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1987,15 +1990,15 @@
   <dimension ref="A1:O296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R210" sqref="R210"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>115320053</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1105101947</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1023100010</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1208200021</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1050500050</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1207103056</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>105280059</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1030403025</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>113460189</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1107601002</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1010201548</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>120470102</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1098200145</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1020304050</v>
       </c>
@@ -2700,7 +2703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1156794321</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1098090087</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1011121314</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1080709021</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1122233344</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1132334455</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1199887766</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1029384757</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1065432198</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1032003004</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1076543219</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1133557799</v>
       </c>
@@ -3264,7 +3267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1002345678</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1199765432</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1087654321</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1010101010</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1133669933</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1223344556</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1072938475</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1298765432</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1002003004</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1054309243</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1292837465</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1134334455</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1085479315</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1029354756</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1182957394</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1239876543</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1065432890</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1079564321</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1102948567</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1049382715</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1023456689</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1123436789</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1234567890</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1082937465</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1076543982</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1193765432</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1008765432</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1209876543</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1256789345</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1112223334</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1192837465</v>
       </c>
@@ -4721,7 +4724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1178945601</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1029344756</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1052768432</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1122234455</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1176345870</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1029381756</v>
       </c>
@@ -5003,7 +5006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1122134355</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1102938475</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1056789342</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1176018345</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1176413890</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1029384756</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1122134455</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1173098345</v>
       </c>
@@ -5379,7 +5382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1189076543</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1054876321</v>
       </c>
@@ -5473,7 +5476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1122334455</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1198765432</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1176098345</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1098735432</v>
       </c>
@@ -5661,7 +5664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1176453890</v>
       </c>
@@ -5708,7 +5711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1012345678</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1143256789</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1098765432</v>
       </c>
@@ -5849,7 +5852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1176091345</v>
       </c>
@@ -5896,7 +5899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1038475621</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1156098732</v>
       </c>
@@ -5990,7 +5993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1109876543</v>
       </c>
@@ -6037,7 +6040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1089765321</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1029184756</v>
       </c>
@@ -6131,7 +6134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1123456789</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1045678912</v>
       </c>
@@ -6225,7 +6228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1134567890</v>
       </c>
@@ -6272,7 +6275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1187654321</v>
       </c>
@@ -6319,7 +6322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1009876543</v>
       </c>
@@ -6366,7 +6369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1076543210</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1098765412</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1012345618</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1023456789</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1045678901</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1122334155</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1155667788</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1199221188</v>
       </c>
@@ -6742,7 +6745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1212121212</v>
       </c>
@@ -6789,7 +6792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1234321043</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1254768256</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1277731411</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1298139463</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1312145556</v>
       </c>
@@ -7024,7 +7027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>102345679</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>109876543</v>
       </c>
@@ -7118,7 +7121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>106789034</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>103467890</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>108956743</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>100000078</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>102378645</v>
       </c>
@@ -7353,7 +7356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>108975034</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>100987605</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>106754390</v>
       </c>
@@ -7494,7 +7497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>105684739</v>
       </c>
@@ -7541,7 +7544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>109870215</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>102349876</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>108927654</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>108934506</v>
       </c>
@@ -7729,7 +7732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>101234567</v>
       </c>
@@ -7776,7 +7779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>108975023</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>105673890</v>
       </c>
@@ -7870,7 +7873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>109875340</v>
       </c>
@@ -7917,7 +7920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>103456789</v>
       </c>
@@ -7964,7 +7967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>109876553</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>104567390</v>
       </c>
@@ -8058,7 +8061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>109876023</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>107895623</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>103456780</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>109276543</v>
       </c>
@@ -8246,7 +8249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>102345670</v>
       </c>
@@ -8293,7 +8296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>108976540</v>
       </c>
@@ -8340,7 +8343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>104567890</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>103456781</v>
       </c>
@@ -8434,7 +8437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>106789012</v>
       </c>
@@ -8481,7 +8484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>109012345</v>
       </c>
@@ -8528,7 +8531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>105678901</v>
       </c>
@@ -8575,7 +8578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>101334567</v>
       </c>
@@ -8622,7 +8625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>109873543</v>
       </c>
@@ -8669,7 +8672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>122345678</v>
       </c>
@@ -8716,7 +8719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>105436109</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>107654721</v>
       </c>
@@ -8810,7 +8813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>103210187</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>106543110</v>
       </c>
@@ -8904,7 +8907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>100002001</v>
       </c>
@@ -8951,7 +8954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>101876543</v>
       </c>
@@ -8998,7 +9001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>102345678</v>
       </c>
@@ -9045,7 +9048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>105432109</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>107654321</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>103210987</v>
       </c>
@@ -9186,7 +9189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>106543210</v>
       </c>
@@ -9233,7 +9236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>100000001</v>
       </c>
@@ -9280,7 +9283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1022384756</v>
       </c>
@@ -9327,7 +9330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1198735432</v>
       </c>
@@ -9374,7 +9377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1048573962</v>
       </c>
@@ -9421,7 +9424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1074839201</v>
       </c>
@@ -9468,7 +9471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1019283745</v>
       </c>
@@ -9515,7 +9518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1065748392</v>
       </c>
@@ -9562,7 +9565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1047638291</v>
       </c>
@@ -9609,7 +9612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1032716495</v>
       </c>
@@ -9656,7 +9659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1083947562</v>
       </c>
@@ -9703,7 +9706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1015382947</v>
       </c>
@@ -9750,7 +9753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1063947852</v>
       </c>
@@ -9797,7 +9800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1098573642</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1029473856</v>
       </c>
@@ -9891,7 +9894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1038475961</v>
       </c>
@@ -9938,7 +9941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1057382910</v>
       </c>
@@ -9985,7 +9988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1029384761</v>
       </c>
@@ -10032,7 +10035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1098347612</v>
       </c>
@@ -10079,7 +10082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1057392876</v>
       </c>
@@ -10126,7 +10129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1047382910</v>
       </c>
@@ -10173,7 +10176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1023849576</v>
       </c>
@@ -10220,7 +10223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1069873425</v>
       </c>
@@ -10267,7 +10270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1029284756</v>
       </c>
@@ -10314,7 +10317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1073849576</v>
       </c>
@@ -10361,7 +10364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1098347526</v>
       </c>
@@ -10408,7 +10411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1047385920</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1069834257</v>
       </c>
@@ -10502,7 +10505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1029384576</v>
       </c>
@@ -10549,7 +10552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1092384567</v>
       </c>
@@ -10596,7 +10599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1082384756</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1092387465</v>
       </c>
@@ -10690,7 +10693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1084739201</v>
       </c>
@@ -10737,7 +10740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1073849506</v>
       </c>
@@ -10784,7 +10787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1065879234</v>
       </c>
@@ -10831,7 +10834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1092837564</v>
       </c>
@@ -10878,7 +10881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1085739284</v>
       </c>
@@ -10925,7 +10928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1093784950</v>
       </c>
@@ -10972,7 +10975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1082749501</v>
       </c>
@@ -11019,7 +11022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1092837495</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1072384956</v>
       </c>
@@ -11113,7 +11116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1079283746</v>
       </c>
@@ -11160,7 +11163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1082849502</v>
       </c>
@@ -11207,7 +11210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1091849283</v>
       </c>
@@ -11254,7 +11257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1072394859</v>
       </c>
@@ -11301,7 +11304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1082937495</v>
       </c>
@@ -11348,7 +11351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1091849502</v>
       </c>
@@ -11395,7 +11398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1085749385</v>
       </c>
@@ -11442,7 +11445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1082938495</v>
       </c>
@@ -11489,7 +11492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1093849584</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1081939405</v>
       </c>
@@ -11583,7 +11586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1071939405</v>
       </c>
@@ -11630,7 +11633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1092918405</v>
       </c>
@@ -11677,7 +11680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1082939405</v>
       </c>
@@ -11724,7 +11727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1093849304</v>
       </c>
@@ -11771,7 +11774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1082938493</v>
       </c>
@@ -11818,7 +11821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1082919501</v>
       </c>
@@ -11865,7 +11868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1092919304</v>
       </c>
@@ -11912,7 +11915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1082949304</v>
       </c>
@@ -11959,7 +11962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1071949551</v>
       </c>
@@ -12006,7 +12009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1093849415</v>
       </c>
@@ -12053,7 +12056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1083949284</v>
       </c>
@@ -12100,7 +12103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1092939304</v>
       </c>
@@ -12147,7 +12150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1083949584</v>
       </c>
@@ -12194,7 +12197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1092938405</v>
       </c>
@@ -12241,7 +12244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1082949501</v>
       </c>
@@ -12288,7 +12291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1092949304</v>
       </c>
@@ -12335,7 +12338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1083949304</v>
       </c>
@@ -12382,7 +12385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1071949501</v>
       </c>
@@ -12429,7 +12432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1093849405</v>
       </c>
@@ -12476,7 +12479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1099568455</v>
       </c>
@@ -12523,7 +12526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1022384456</v>
       </c>
@@ -12570,7 +12573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1119383721</v>
       </c>
@@ -12617,7 +12620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1019382726</v>
       </c>
@@ -12664,7 +12667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1009451289</v>
       </c>
@@ -12711,7 +12714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1029374618</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1009237465</v>
       </c>
@@ -12781,7 +12784,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1092381726</v>
       </c>
@@ -12828,7 +12831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1001234567</v>
       </c>
@@ -12875,7 +12878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1012335678</v>
       </c>
@@ -12922,7 +12925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1023454789</v>
       </c>
@@ -12969,7 +12972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1034557890</v>
       </c>
@@ -13016,7 +13019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1045672901</v>
       </c>
@@ -13063,7 +13066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1056789012</v>
       </c>
@@ -13110,7 +13113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1067890123</v>
       </c>
@@ -13157,7 +13160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1078901234</v>
       </c>
@@ -13204,7 +13207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1089012345</v>
       </c>
@@ -13251,7 +13254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1090123456</v>
       </c>
@@ -13298,7 +13301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1101234567</v>
       </c>
@@ -13345,7 +13348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1112345678</v>
       </c>
@@ -13392,7 +13395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1123454789</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1134567490</v>
       </c>
@@ -13486,7 +13489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1156789012</v>
       </c>
@@ -13533,7 +13536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1167890123</v>
       </c>
@@ -13580,7 +13583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1178901234</v>
       </c>
@@ -13627,7 +13630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1189012345</v>
       </c>
@@ -13674,7 +13677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1190123456</v>
       </c>
@@ -13721,7 +13724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1201234567</v>
       </c>
@@ -13768,7 +13771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1212345678</v>
       </c>
@@ -13815,7 +13818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1223456789</v>
       </c>
@@ -13862,7 +13865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1234367890</v>
       </c>
@@ -13909,7 +13912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1245678901</v>
       </c>
@@ -13956,7 +13959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1256789012</v>
       </c>
@@ -14003,7 +14006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1267890123</v>
       </c>
@@ -14050,7 +14053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1289012345</v>
       </c>
@@ -14097,7 +14100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1290123456</v>
       </c>
@@ -14144,7 +14147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1301234567</v>
       </c>
@@ -14191,7 +14194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1312345678</v>
       </c>
@@ -14238,7 +14241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1323456789</v>
       </c>
@@ -14285,7 +14288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1334567890</v>
       </c>
@@ -14332,7 +14335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1345678901</v>
       </c>
@@ -14379,7 +14382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1356789012</v>
       </c>
@@ -14426,7 +14429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1367890123</v>
       </c>
@@ -14473,7 +14476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1378901234</v>
       </c>
@@ -14520,7 +14523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1389012345</v>
       </c>
@@ -14567,7 +14570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1390123456</v>
       </c>
@@ -14614,7 +14617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1401234567</v>
       </c>
@@ -14661,7 +14664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1423456789</v>
       </c>
@@ -14708,7 +14711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1434567890</v>
       </c>
@@ -14755,7 +14758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1445678901</v>
       </c>
@@ -14802,7 +14805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1456789012</v>
       </c>
@@ -14849,7 +14852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1467890123</v>
       </c>
@@ -14896,7 +14899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1478901234</v>
       </c>
@@ -14943,7 +14946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1489012345</v>
       </c>
@@ -14990,7 +14993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1490123456</v>
       </c>
@@ -15037,7 +15040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1501234567</v>
       </c>
@@ -15084,7 +15087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1512345678</v>
       </c>
@@ -15131,7 +15134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1523456789</v>
       </c>
@@ -15178,7 +15181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>1534567890</v>
       </c>
@@ -15225,7 +15228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1545678901</v>
       </c>
@@ -15272,7 +15275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1567890123</v>
       </c>
@@ -15319,7 +15322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1578901234</v>
       </c>
@@ -15366,7 +15369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1589012345</v>
       </c>
@@ -15413,7 +15416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1590123456</v>
       </c>
@@ -15460,7 +15463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1601234567</v>
       </c>
@@ -15507,7 +15510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>1612345678</v>
       </c>
@@ -15554,7 +15557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1623456789</v>
       </c>
@@ -15601,7 +15604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>1634567890</v>
       </c>
@@ -15648,7 +15651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1645678901</v>
       </c>
@@ -15695,7 +15698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1656789012</v>
       </c>
@@ -15742,7 +15745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1667890123</v>
       </c>
@@ -15789,7 +15792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1678901234</v>
       </c>
@@ -15836,7 +15839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1689012345</v>
       </c>
@@ -15884,6 +15887,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>